--- a/EvaluationForms_W_Teamname_StudentName.xlsx
+++ b/EvaluationForms_W_Teamname_StudentName.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\20DSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\DSDPublic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB298C0-40EF-4412-9A22-614EC8A9BEA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DDD73A-D5E7-4DF7-8735-3D37CEB12902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="3480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C837394A-674A-4B62-AC40-90A56BBDFD1D}"/>
+    <workbookView xWindow="-120" yWindow="4080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C837394A-674A-4B62-AC40-90A56BBDFD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15"/>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
